--- a/data/WC.xlsx
+++ b/data/WC.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12300"/>
+    <workbookView windowWidth="13725" windowHeight="12300" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="WC2014" sheetId="3" r:id="rId1"/>
-    <sheet name="WC2018" sheetId="1" r:id="rId2"/>
-    <sheet name="WC2022" sheetId="2" r:id="rId3"/>
+    <sheet name="WC2006" sheetId="5" r:id="rId1"/>
+    <sheet name="WC2010" sheetId="4" r:id="rId2"/>
+    <sheet name="WC2014" sheetId="3" r:id="rId3"/>
+    <sheet name="WC2018" sheetId="1" r:id="rId4"/>
+    <sheet name="WC2022" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="80">
   <si>
     <t>#</t>
   </si>
@@ -24,181 +26,229 @@
     <t>country</t>
   </si>
   <si>
-    <t>group</t>
+    <t>group_2006</t>
   </si>
   <si>
     <t>confederation</t>
   </si>
   <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>CONCACAF</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>CONMEBOL</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>UEFA</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>AFC</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>CONMEBOL</t>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>group_2010</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
   </si>
   <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>CAF</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>UEFA</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>CONCACAF</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>AFC</t>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>OFC</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>North Korea</t>
   </si>
   <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Spain</t>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>group_2014</t>
   </si>
   <si>
     <t>Colombia</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>South Korea</t>
+    <t>group_2018</t>
   </si>
   <si>
     <t>Egypt</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
-    <t>Denmark</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>Iceland</t>
   </si>
   <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
     <t>Panama</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
     <t>Senegal</t>
+  </si>
+  <si>
+    <t>group_2022</t>
   </si>
   <si>
     <t>Qatar</t>
@@ -215,10 +265,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -226,6 +276,36 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,28 +319,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,11 +333,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,8 +350,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,23 +373,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -344,9 +402,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,13 +422,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -382,7 +432,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,37 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,49 +510,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,13 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +582,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,13 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,33 +628,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,28 +682,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,145 +728,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,13 +1198,13 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="20.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="14.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1225,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1233,13 +1283,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1247,13 +1297,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1261,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1275,13 +1325,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1289,13 +1339,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1303,13 +1353,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1317,13 +1367,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1331,13 +1381,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1345,13 +1395,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1359,13 +1409,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1376,10 +1426,10 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1390,10 +1440,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1407,7 +1457,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1421,7 +1471,7 @@
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1435,7 +1485,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1449,7 +1499,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1463,7 +1513,7 @@
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1477,7 +1527,7 @@
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1491,7 +1541,7 @@
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1505,7 +1555,7 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1533,7 +1583,7 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1561,7 +1611,7 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1575,7 +1625,7 @@
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1603,7 +1653,7 @@
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1617,7 +1667,7 @@
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1682,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C33"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1649,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1660,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1674,13 +1724,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1694,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1702,13 +1752,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1716,13 +1766,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1730,13 +1780,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1744,13 +1794,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1758,13 +1808,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1772,13 +1822,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1786,10 +1836,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1800,10 +1850,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1814,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -1831,10 +1881,10 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1845,7 +1895,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -1856,13 +1906,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1870,13 +1920,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1884,13 +1934,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1898,13 +1948,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1912,13 +1962,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1926,7 +1976,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -1940,7 +1990,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -1954,13 +2004,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1968,13 +2018,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1982,7 +2032,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -1996,13 +2046,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2010,13 +2060,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2024,13 +2074,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2038,13 +2088,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2052,13 +2102,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2066,13 +2116,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2080,7 +2130,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -2094,13 +2144,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2115,7 +2165,973 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="14.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="14.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2132,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2143,13 +3159,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2157,7 +3173,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2171,13 +3187,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2185,13 +3201,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2199,10 +3215,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -2213,13 +3229,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2227,13 +3243,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2241,10 +3257,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -2255,13 +3271,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2269,13 +3285,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2283,10 +3299,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -2297,13 +3313,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2311,13 +3327,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2325,10 +3341,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -2339,10 +3355,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -2353,13 +3369,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2367,13 +3383,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2381,7 +3397,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -2395,13 +3411,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2409,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -2423,7 +3439,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -2437,13 +3453,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2451,7 +3467,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
@@ -2465,13 +3481,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2479,13 +3495,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2493,13 +3509,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2507,7 +3523,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
@@ -2521,7 +3537,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
@@ -2535,13 +3551,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2549,7 +3565,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
@@ -2563,13 +3579,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2577,13 +3593,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
